--- a/payments.xlsx
+++ b/payments.xlsx
@@ -8,19 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zkari\Documents\QRPromTicket\QRPromTicket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49B8E1B-41C5-4517-BFB2-C17619C56A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F70D80-96C7-41C1-B43C-925B90665815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="81">
   <si>
     <t>Entry Date</t>
   </si>
@@ -211,9 +246,6 @@
     <t>5' 9"</t>
   </si>
   <si>
-    <t>05/08/2023 21:20:27</t>
-  </si>
-  <si>
     <t>1683595226965.w13a</t>
   </si>
   <si>
@@ -257,6 +289,15 @@
   </si>
   <si>
     <t>zkarim7676@gmail.com</t>
+  </si>
+  <si>
+    <t>zkarim7676@hotmail.com</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>zkarim666@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -301,9 +342,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,10 +664,15 @@
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -742,7 +789,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
         <v>36</v>
@@ -810,7 +857,7 @@
         <v>43</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q3" t="s">
         <v>48</v>
@@ -878,7 +925,7 @@
         <v>55</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q4" t="s">
         <v>60</v>
@@ -900,32 +947,32 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2">
+        <v>45054.889201388891</v>
+      </c>
+      <c r="B5" t="s">
         <v>63</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>65</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -943,27 +990,234 @@
         <v>34</v>
       </c>
       <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45054.889201388891</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">-A6:V6+A7</f>
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q6">
+        <v>222726051</v>
+      </c>
+      <c r="R6" t="s">
         <v>72</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" t="s">
+        <v>32</v>
+      </c>
+      <c r="U6" t="s">
         <v>73</v>
       </c>
-      <c r="S5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" t="s">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45054.889201388891</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">-A7:V7+A8</f>
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7">
+        <v>222726051</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45054.889201388891</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">-A8:V8+A9</f>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8">
+        <v>222726051</v>
+      </c>
+      <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -979,6 +1233,9 @@
     <hyperlink ref="P3" r:id="rId2" xr:uid="{178DA10C-EA43-4171-B712-A5195F76CBCD}"/>
     <hyperlink ref="P4" r:id="rId3" xr:uid="{1F5F0AFC-39FA-474C-B460-EECEC6DF159F}"/>
     <hyperlink ref="P5" r:id="rId4" xr:uid="{F40F6401-2876-4445-9C2C-89CC0032A60D}"/>
+    <hyperlink ref="P6" r:id="rId5" xr:uid="{906727A1-ECEB-43A7-A5A0-DC6C4CAE4699}"/>
+    <hyperlink ref="P7" r:id="rId6" xr:uid="{CB25FBA2-679A-422E-9941-AF8ED1F52BE2}"/>
+    <hyperlink ref="P8" r:id="rId7" xr:uid="{2FC16A48-FAFF-4023-9C4B-9612E827E270}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
